--- a/webapps/assets/uatdocuments/To-Do Items Phase 1.xlsx
+++ b/webapps/assets/uatdocuments/To-Do Items Phase 1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17626"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
   <si>
     <t>S.No</t>
   </si>
@@ -45,6 +45,9 @@
     <t>Timeline</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Establishment of link with Omnifin</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
   </si>
   <si>
     <t>EACIIT</t>
+  </si>
+  <si>
+    <t>Complete</t>
   </si>
   <si>
     <t>Account Details - Distributor Mix drop down</t>
@@ -376,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +398,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +438,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -446,7 +460,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -459,37 +473,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -827,11 +844,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="A21:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15"/>
@@ -846,673 +863,798 @@
     <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="27.95">
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="27.95">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="56.1">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="56.1">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A31" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="27.95">
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="27.95">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="42">
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="42">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="27.95">
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="27.95">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="42">
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="42">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="56.1">
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="56.1">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="140.1">
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="140.1">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="36">
+      <c r="A11" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="98.1">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="36">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="98.1">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="111.95">
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="111.95">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="98.1">
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="98.1">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="56.1">
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="56.1">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" s="9" customFormat="1" ht="42">
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" s="7" customFormat="1" ht="42">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" ht="69.95">
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" s="7" customFormat="1" ht="69.95">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" s="9" customFormat="1" ht="48">
-      <c r="A18" s="1">
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" s="7" customFormat="1" ht="48">
+      <c r="A18" s="13">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4" t="s">
+      <c r="B18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" s="9" customFormat="1" ht="27.95">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="7" customFormat="1" ht="27.95">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="27.95">
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="27.95">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="24">
-      <c r="A21" s="1">
+      <c r="D20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="24">
+      <c r="A21" s="13">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="11" t="s">
+      <c r="B21" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="24">
-      <c r="A22" s="1">
+      <c r="F21" s="15"/>
+      <c r="G21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="24">
+      <c r="A22" s="13">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="11" t="s">
+      <c r="B22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="42">
+      <c r="F22" s="15"/>
+      <c r="G22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="42">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="B23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="C23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="B24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="98.1">
+      <c r="C24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" ht="98.1">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="12" t="s">
+      <c r="B25" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="C25" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="69.95">
+      <c r="D25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" ht="69.95">
       <c r="A26" s="1"/>
-      <c r="B26" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="B26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" ht="27.95">
+      <c r="F26" s="8"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" ht="27.95">
       <c r="A27" s="1">
         <f>A25+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="12" t="s">
+      <c r="B27" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="69.95">
+      <c r="C27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" ht="69.95">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="69.95">
+      <c r="G28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" ht="69.95">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="42">
+        <v>12</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" ht="42">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="B30" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="C30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
